--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3611.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3611.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277472972048618</v>
+        <v>1.30321741104126</v>
       </c>
       <c r="B1">
-        <v>2.327130001888281</v>
+        <v>2.438845872879028</v>
       </c>
       <c r="C1">
-        <v>3.496840196640769</v>
+        <v>4.559343814849854</v>
       </c>
       <c r="D1">
-        <v>2.975054800688349</v>
+        <v>1.917994976043701</v>
       </c>
       <c r="E1">
-        <v>0.9216192927810614</v>
+        <v>1.114999532699585</v>
       </c>
     </row>
   </sheetData>
